--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T09:40:17+00:00</t>
+    <t>2021-12-01T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T11:34:04+00:00</t>
+    <t>2021-12-06T15:13:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T18:19:37+00:00</t>
+    <t>2021-12-09T19:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T19:18:46+00:00</t>
+    <t>2022-01-05T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:37:11+00:00</t>
+    <t>2022-01-05T14:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:53:01+00:00</t>
+    <t>2022-05-24T10:16:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:16:42+00:00</t>
+    <t>2022-09-05T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="657">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:28:19+00:00</t>
+    <t>2022-11-28T18:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,10 +265,6 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -282,47 +278,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Patient.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Patient.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -373,10 +373,6 @@
   </si>
   <si>
     <t>Patient.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2425,40 +2421,40 @@
     <col min="1" max="1" width="50.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.5390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="62.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
@@ -2684,13 +2680,13 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>79</v>
@@ -2707,7 +2703,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2718,28 +2714,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2789,13 +2785,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2824,7 +2820,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2835,25 +2831,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2904,19 +2900,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2939,7 +2935,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2950,7 +2946,7 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>79</v>
@@ -2962,7 +2958,7 @@
         <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -3025,7 +3021,7 @@
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
@@ -3182,28 +3178,28 @@
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3253,19 +3249,19 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>79</v>
@@ -3288,7 +3284,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3299,28 +3295,28 @@
         <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3370,19 +3366,19 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>79</v>
@@ -3405,7 +3401,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3416,28 +3412,28 @@
         <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3487,19 +3483,19 @@
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3522,7 +3518,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3536,25 +3532,25 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3604,7 +3600,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3616,7 +3612,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3639,7 +3635,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3659,19 +3655,19 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3697,31 +3693,31 @@
         <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3733,7 +3729,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3756,7 +3752,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3776,19 +3772,19 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3814,31 +3810,31 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3850,7 +3846,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3873,7 +3869,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3884,28 +3880,28 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3955,19 +3951,19 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -3990,7 +3986,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -4001,11 +3997,11 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
@@ -4013,16 +4009,16 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -4048,43 +4044,43 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -4107,18 +4103,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -4130,16 +4126,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4189,22 +4185,22 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -4224,11 +4220,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4247,16 +4243,16 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4306,7 +4302,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4321,7 +4317,7 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -4341,7 +4337,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4370,7 +4366,7 @@
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>109</v>
@@ -4423,7 +4419,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4438,7 +4434,7 @@
         <v>114</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4458,7 +4454,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4475,7 +4471,7 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
@@ -4484,16 +4480,16 @@
         <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>109</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4542,7 +4538,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4557,7 +4553,7 @@
         <v>114</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4577,7 +4573,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4585,32 +4581,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4647,7 +4643,7 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
@@ -4657,7 +4653,7 @@
         <v>112</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4669,19 +4665,19 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4692,10 +4688,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4705,11 +4701,11 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4717,17 +4713,17 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4737,7 +4733,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -4776,7 +4772,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4785,22 +4781,22 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AI20" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4811,7 +4807,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4822,7 +4818,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4834,7 +4830,7 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>100</v>
@@ -4897,7 +4893,7 @@
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4926,7 +4922,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5017,13 +5013,13 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -5043,7 +5039,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5054,31 +5050,31 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -5103,47 +5099,47 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5151,7 +5147,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -5162,7 +5158,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5173,31 +5169,31 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5207,70 +5203,70 @@
         <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5281,7 +5277,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5289,107 +5285,107 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="R25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S25" t="s" s="2">
+      <c r="T25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5400,7 +5396,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5408,31 +5404,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5446,78 +5442,78 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI26" t="s" s="2">
+      <c r="AJ26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5528,28 +5524,28 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5599,31 +5595,31 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI27" t="s" s="2">
+      <c r="AJ27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5634,7 +5630,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5645,28 +5641,28 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5716,31 +5712,31 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI28" t="s" s="2">
+      <c r="AJ28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5751,10 +5747,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5767,7 +5763,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5776,17 +5772,17 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5796,7 +5792,7 @@
         <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>79</v>
@@ -5835,7 +5831,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5844,22 +5840,22 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5870,10 +5866,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>79</v>
@@ -5883,11 +5879,11 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5895,17 +5891,17 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5915,7 +5911,7 @@
         <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
@@ -5954,7 +5950,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5963,22 +5959,22 @@
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AI30" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5989,7 +5985,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6000,103 +5996,103 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="O31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P31" t="s" s="2">
+      <c r="Q31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="Q31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6110,7 +6106,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6118,34 +6114,34 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6182,7 +6178,7 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
@@ -6192,7 +6188,7 @@
         <v>112</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6204,19 +6200,19 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6227,24 +6223,24 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6252,19 +6248,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6274,7 +6270,7 @@
         <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -6313,7 +6309,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6322,22 +6318,22 @@
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6348,7 +6344,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6359,7 +6355,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6371,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>100</v>
@@ -6434,7 +6430,7 @@
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6463,7 +6459,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6554,13 +6550,13 @@
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6580,7 +6576,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6591,31 +6587,31 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6640,55 +6636,55 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6699,7 +6695,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6710,31 +6706,31 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6783,31 +6779,31 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6818,39 +6814,39 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6900,42 +6896,42 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6946,7 +6942,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6958,7 +6954,7 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>100</v>
@@ -7021,7 +7017,7 @@
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -7050,7 +7046,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7141,13 +7137,13 @@
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -7167,10 +7163,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>79</v>
@@ -7180,7 +7176,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -7192,16 +7188,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7260,13 +7256,13 @@
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7281,15 +7277,15 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>105</v>
@@ -7299,7 +7295,7 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -7311,16 +7307,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7379,22 +7375,22 @@
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7405,10 +7401,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>79</v>
@@ -7418,7 +7414,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7430,16 +7426,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7498,33 +7494,33 @@
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7535,7 +7531,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7547,13 +7543,13 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7577,40 +7573,40 @@
         <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7639,11 +7635,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7659,19 +7655,19 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7721,7 +7717,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7730,33 +7726,33 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7776,19 +7772,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7838,7 +7834,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7847,33 +7843,33 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7884,7 +7880,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7896,7 +7892,7 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>100</v>
@@ -7959,7 +7955,7 @@
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7988,7 +7984,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8079,13 +8075,13 @@
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -8105,10 +8101,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>105</v>
@@ -8130,16 +8126,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8198,13 +8194,13 @@
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -8224,7 +8220,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8235,7 +8231,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -8247,13 +8243,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8277,40 +8273,40 @@
         <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="W50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -8339,7 +8335,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8359,19 +8355,19 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8421,7 +8417,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8430,22 +8426,22 @@
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8456,7 +8452,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8467,31 +8463,31 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8540,31 +8536,31 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8575,7 +8571,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8595,22 +8591,22 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8659,7 +8655,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8671,19 +8667,19 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8694,7 +8690,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8705,31 +8701,31 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8754,66 +8750,66 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8824,7 +8820,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8836,13 +8832,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8899,7 +8895,7 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8928,7 +8924,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8954,10 +8950,10 @@
         <v>106</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -9041,10 +9037,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>79</v>
@@ -9054,11 +9050,11 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9066,13 +9062,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -9132,13 +9128,13 @@
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9158,7 +9154,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9169,7 +9165,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -9181,13 +9177,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9238,13 +9234,13 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -9273,7 +9269,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9284,31 +9280,31 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9357,42 +9353,42 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>441</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9403,31 +9399,31 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9476,22 +9472,22 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>103</v>
@@ -9500,7 +9496,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9511,7 +9507,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9525,28 +9521,28 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9583,7 +9579,7 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
@@ -9593,7 +9589,7 @@
         <v>112</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9605,19 +9601,19 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9628,10 +9624,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>79</v>
@@ -9644,7 +9640,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9653,19 +9649,19 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9675,11 +9671,11 @@
         <v>79</v>
       </c>
       <c r="R62" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="S62" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="S62" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9714,7 +9710,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9723,22 +9719,22 @@
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AJ62" t="s" s="2">
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9749,7 +9745,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9760,7 +9756,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9772,17 +9768,17 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9807,55 +9803,55 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
+      <c r="AK63" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9866,7 +9862,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9877,7 +9873,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9889,19 +9885,19 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9950,22 +9946,22 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>103</v>
@@ -9974,7 +9970,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9985,7 +9981,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10008,19 +10004,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -10069,7 +10065,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -10081,10 +10077,10 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>103</v>
@@ -10093,7 +10089,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10104,7 +10100,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10127,19 +10123,19 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -10188,7 +10184,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10200,10 +10196,10 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>103</v>
@@ -10223,7 +10219,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10234,7 +10230,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10246,7 +10242,7 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>100</v>
@@ -10309,7 +10305,7 @@
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -10338,7 +10334,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10455,11 +10451,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10472,25 +10468,25 @@
         <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>109</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10539,7 +10535,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10554,7 +10550,7 @@
         <v>114</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10574,7 +10570,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10597,17 +10593,17 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10632,14 +10628,14 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10656,7 +10652,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10668,10 +10664,10 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>103</v>
@@ -10680,7 +10676,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10691,7 +10687,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10702,7 +10698,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10714,19 +10710,19 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10775,31 +10771,31 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AJ71" t="s" s="2">
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10810,7 +10806,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10833,19 +10829,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10894,7 +10890,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10906,10 +10902,10 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>103</v>
@@ -10918,7 +10914,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10929,7 +10925,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10940,7 +10936,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10952,19 +10948,19 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10977,67 +10973,67 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI73" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="T73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AI73" t="s" s="2">
+      <c r="AJ73" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -11048,7 +11044,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11059,7 +11055,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -11071,17 +11067,17 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -11106,46 +11102,46 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>103</v>
@@ -11154,7 +11150,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11165,7 +11161,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11176,7 +11172,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -11188,17 +11184,17 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11247,22 +11243,22 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>103</v>
@@ -11271,7 +11267,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11282,7 +11278,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11293,7 +11289,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -11305,13 +11301,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11362,22 +11358,22 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>103</v>
@@ -11397,7 +11393,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11411,7 +11407,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11420,19 +11416,19 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11481,7 +11477,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11493,13 +11489,13 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
@@ -11516,7 +11512,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11527,7 +11523,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11539,7 +11535,7 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>100</v>
@@ -11602,7 +11598,7 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11631,7 +11627,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11748,11 +11744,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11765,25 +11761,25 @@
         <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>109</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11832,7 +11828,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11847,7 +11843,7 @@
         <v>114</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11867,7 +11863,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11875,14 +11871,14 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11890,19 +11886,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11927,14 +11923,14 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X81" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="X81" t="s" s="2">
+      <c r="Y81" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11951,31 +11947,31 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11986,7 +11982,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11997,7 +11993,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -12009,7 +12005,7 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>100</v>
@@ -12072,7 +12068,7 @@
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -12101,7 +12097,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12218,7 +12214,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12232,28 +12228,28 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12302,7 +12298,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12314,19 +12310,19 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12337,7 +12333,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12348,7 +12344,7 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>79</v>
@@ -12360,7 +12356,7 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>100</v>
@@ -12423,7 +12419,7 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
@@ -12452,7 +12448,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12569,7 +12565,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12580,31 +12576,31 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G87" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12653,31 +12649,31 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AF87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12688,7 +12684,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12699,28 +12695,28 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12770,31 +12766,31 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AF88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12805,7 +12801,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12816,29 +12812,29 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12887,31 +12883,31 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12922,7 +12918,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12933,29 +12929,29 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -13004,31 +13000,31 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13039,7 +13035,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13050,31 +13046,31 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -13123,31 +13119,31 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13158,7 +13154,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13169,31 +13165,31 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13242,31 +13238,31 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13277,7 +13273,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13288,7 +13284,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13300,19 +13296,19 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13361,31 +13357,31 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="AK93" t="s" s="2">
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13396,11 +13392,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13419,16 +13415,16 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13478,7 +13474,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13490,10 +13486,10 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>103</v>
@@ -13502,7 +13498,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13513,7 +13509,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13524,31 +13520,31 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J95" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13597,25 +13593,25 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>79</v>
@@ -13632,7 +13628,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13649,25 +13645,25 @@
         <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13716,7 +13712,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13728,10 +13724,10 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>103</v>
@@ -13751,7 +13747,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13762,7 +13758,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13774,7 +13770,7 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>100</v>
@@ -13837,7 +13833,7 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -13866,7 +13862,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13983,11 +13979,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -14000,25 +13996,25 @@
         <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>109</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14067,7 +14063,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14082,7 +14078,7 @@
         <v>114</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>79</v>
@@ -14102,7 +14098,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14110,31 +14106,31 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J100" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -14184,22 +14180,22 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>103</v>
@@ -14208,7 +14204,7 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14219,7 +14215,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14227,28 +14223,28 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -14275,46 +14271,46 @@
         <v>79</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="Y101" t="s" s="2">
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>103</v>

--- a/StructureDefinition-mp4p-patient.xlsx
+++ b/StructureDefinition-mp4p-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
